--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyja\Dropbox\2017下\バイト\2018krm\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tagzuke\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="435" windowWidth="24645" windowHeight="15555" activeTab="2"/>
+    <workbookView xWindow="960" yWindow="435" windowWidth="24645" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="雨" sheetId="1" r:id="rId1"/>
@@ -9340,7 +9340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9372,14 +9372,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -9438,10 +9430,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -17427,11 +17419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L618"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E196" sqref="A1:L229"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I230" sqref="I230:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17474,7 +17465,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -17507,7 +17498,7 @@
         <v>K0706581</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -17540,7 +17531,7 @@
         <v>K0706581</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -17573,7 +17564,7 @@
         <v>K0706581</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -17781,7 +17772,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17814,7 +17805,7 @@
         <v>K0706621</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -17847,7 +17838,7 @@
         <v>K0706621</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -17985,7 +17976,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -18018,7 +18009,7 @@
         <v>K0706634</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -18051,7 +18042,7 @@
         <v>K0706634</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -18084,7 +18075,7 @@
         <v>K0706634</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -18187,7 +18178,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -18220,7 +18211,7 @@
         <v>K0706651</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -18253,7 +18244,7 @@
         <v>K0706651</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -18286,7 +18277,7 @@
         <v>K0706651</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -18354,7 +18345,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -18387,7 +18378,7 @@
         <v>K0706662</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -18455,7 +18446,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -18488,7 +18479,7 @@
         <v>K0706664</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -18521,7 +18512,7 @@
         <v>K0706664</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -18554,7 +18545,7 @@
         <v>K0706673</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -18587,7 +18578,7 @@
         <v>K0706673</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>171</v>
       </c>
@@ -18620,7 +18611,7 @@
         <v>K0706673</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -18653,7 +18644,7 @@
         <v>K0706683</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -18686,7 +18677,7 @@
         <v>K0706684</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -18719,7 +18710,7 @@
         <v>K0706711</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -18752,7 +18743,7 @@
         <v>K0706711</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -18785,7 +18776,7 @@
         <v>K0706713</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -18818,7 +18809,7 @@
         <v>K0706721</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -18851,7 +18842,7 @@
         <v>K0706721</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>207</v>
       </c>
@@ -18888,7 +18879,7 @@
         <v>K0706721</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -18921,7 +18912,7 @@
         <v>K0706731</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>218</v>
       </c>
@@ -18954,7 +18945,7 @@
         <v>K0706731</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -18987,7 +18978,7 @@
         <v>K0706733</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -19020,7 +19011,7 @@
         <v>K0706733</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>231</v>
       </c>
@@ -19053,7 +19044,7 @@
         <v>K0706742</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>236</v>
       </c>
@@ -19086,7 +19077,7 @@
         <v>K0706743</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>241</v>
       </c>
@@ -19154,7 +19145,7 @@
       </c>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -19187,7 +19178,7 @@
         <v>K0706751</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -19220,7 +19211,7 @@
         <v>K0706761</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -19253,7 +19244,7 @@
         <v>K0706762</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>266</v>
       </c>
@@ -19286,7 +19277,7 @@
         <v>K0706762</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -19319,7 +19310,7 @@
         <v>K0706764</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -19352,7 +19343,7 @@
         <v>K0706771</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>280</v>
       </c>
@@ -19385,7 +19376,7 @@
         <v>K0706772</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>285</v>
       </c>
@@ -19418,7 +19409,7 @@
         <v>K0706773</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>290</v>
       </c>
@@ -19451,7 +19442,7 @@
         <v>K0706774</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>295</v>
       </c>
@@ -19484,7 +19475,7 @@
         <v>K0706781</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -19517,7 +19508,7 @@
         <v>K0706781</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>304</v>
       </c>
@@ -19550,7 +19541,7 @@
         <v>K0706784</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>309</v>
       </c>
@@ -19583,7 +19574,7 @@
         <v>K0706784</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>313</v>
       </c>
@@ -19616,7 +19607,7 @@
         <v>K0706784</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>318</v>
       </c>
@@ -19649,7 +19640,7 @@
         <v>K0706813</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>323</v>
       </c>
@@ -19682,7 +19673,7 @@
         <v>K0706813</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -19715,7 +19706,7 @@
         <v>K0706813</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>331</v>
       </c>
@@ -19748,7 +19739,7 @@
         <v>K0706821</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -19781,7 +19772,7 @@
         <v>K0706822</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -19814,7 +19805,7 @@
         <v>K0706823</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -19882,7 +19873,7 @@
       </c>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>355</v>
       </c>
@@ -19915,7 +19906,7 @@
         <v>K0706832</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>360</v>
       </c>
@@ -19948,7 +19939,7 @@
         <v>K0706832</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -19981,7 +19972,7 @@
         <v>K0706834</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>369</v>
       </c>
@@ -20014,7 +20005,7 @@
         <v>K0706834</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>374</v>
       </c>
@@ -20047,7 +20038,7 @@
         <v>K0706843</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -20080,7 +20071,7 @@
         <v>K0706843</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>384</v>
       </c>
@@ -20113,7 +20104,7 @@
         <v>K0706851</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>389</v>
       </c>
@@ -20146,7 +20137,7 @@
         <v>K0706851</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>393</v>
       </c>
@@ -20179,7 +20170,7 @@
         <v>K0706853</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>398</v>
       </c>
@@ -20212,7 +20203,7 @@
         <v>K0706853</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>402</v>
       </c>
@@ -20245,7 +20236,7 @@
         <v>K0706853</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>406</v>
       </c>
@@ -20278,7 +20269,7 @@
         <v>K0706853</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>410</v>
       </c>
@@ -20311,7 +20302,7 @@
         <v>K0706862</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>415</v>
       </c>
@@ -20344,7 +20335,7 @@
         <v>K0706863</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>420</v>
       </c>
@@ -20377,7 +20368,7 @@
         <v>K0706864</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -20410,7 +20401,7 @@
         <v>K0706871</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>431</v>
       </c>
@@ -20443,7 +20434,7 @@
         <v>K0706872</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>436</v>
       </c>
@@ -20476,7 +20467,7 @@
         <v>K0706872</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>440</v>
       </c>
@@ -20509,7 +20500,7 @@
         <v>K0706872</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>443</v>
       </c>
@@ -20542,7 +20533,7 @@
         <v>K0706883</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -20575,7 +20566,7 @@
         <v>K0706884</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>454</v>
       </c>
@@ -20608,7 +20599,7 @@
         <v>K0706911</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>459</v>
       </c>
@@ -20641,7 +20632,7 @@
         <v>K0706913</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>464</v>
       </c>
@@ -20674,7 +20665,7 @@
         <v>K0706914</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>469</v>
       </c>
@@ -20742,7 +20733,7 @@
       </c>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>479</v>
       </c>
@@ -20775,7 +20766,7 @@
         <v>K0706923</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>484</v>
       </c>
@@ -20808,7 +20799,7 @@
         <v>K0706924</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>489</v>
       </c>
@@ -20841,7 +20832,7 @@
         <v>K0706931</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>494</v>
       </c>
@@ -20874,7 +20865,7 @@
         <v>K0706932</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>499</v>
       </c>
@@ -20907,7 +20898,7 @@
         <v>K0706932</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>503</v>
       </c>
@@ -20940,7 +20931,7 @@
         <v>K07069332</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>508</v>
       </c>
@@ -21008,7 +20999,7 @@
       </c>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>518</v>
       </c>
@@ -21041,7 +21032,7 @@
         <v>K0706943</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>523</v>
       </c>
@@ -21074,7 +21065,7 @@
         <v>K0706944</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>528</v>
       </c>
@@ -21107,7 +21098,7 @@
         <v>K0706952</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>533</v>
       </c>
@@ -21140,7 +21131,7 @@
         <v>K0706953</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>538</v>
       </c>
@@ -21173,7 +21164,7 @@
         <v>K0706954</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>543</v>
       </c>
@@ -21206,7 +21197,7 @@
         <v>K0706962</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>548</v>
       </c>
@@ -21239,7 +21230,7 @@
         <v>K0706962</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>552</v>
       </c>
@@ -21272,7 +21263,7 @@
         <v>K0706962</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>557</v>
       </c>
@@ -21305,7 +21296,7 @@
         <v>K0706972</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>562</v>
       </c>
@@ -21338,7 +21329,7 @@
         <v>K0706972</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>566</v>
       </c>
@@ -21371,7 +21362,7 @@
         <v>K0706972</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>570</v>
       </c>
@@ -21404,7 +21395,7 @@
         <v>K0706981</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>575</v>
       </c>
@@ -21437,7 +21428,7 @@
         <v>K0706981</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>578</v>
       </c>
@@ -21470,7 +21461,7 @@
         <v>K0706983</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>583</v>
       </c>
@@ -21503,7 +21494,7 @@
         <v>K0707011</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>588</v>
       </c>
@@ -21536,7 +21527,7 @@
         <v>K0707012</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>593</v>
       </c>
@@ -21569,7 +21560,7 @@
         <v>K0707013</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>598</v>
       </c>
@@ -21602,7 +21593,7 @@
         <v>K0707014</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>604</v>
       </c>
@@ -21635,7 +21626,7 @@
         <v>K0707014</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>607</v>
       </c>
@@ -21668,7 +21659,7 @@
         <v>K0707022</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>612</v>
       </c>
@@ -21701,7 +21692,7 @@
         <v>K0707023</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>617</v>
       </c>
@@ -21734,7 +21725,7 @@
         <v>K0707024</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>622</v>
       </c>
@@ -21767,7 +21758,7 @@
         <v>K0707024</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>626</v>
       </c>
@@ -21800,7 +21791,7 @@
         <v>K0707032</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>631</v>
       </c>
@@ -21833,7 +21824,7 @@
         <v>K0707033</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>636</v>
       </c>
@@ -21866,7 +21857,7 @@
         <v>K0707034</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>641</v>
       </c>
@@ -21899,7 +21890,7 @@
         <v>K0707041</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>646</v>
       </c>
@@ -21932,7 +21923,7 @@
         <v>K0707042</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>651</v>
       </c>
@@ -21965,7 +21956,7 @@
         <v>K0707043</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>657</v>
       </c>
@@ -21998,7 +21989,7 @@
         <v>K0707044</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>662</v>
       </c>
@@ -22031,7 +22022,7 @@
         <v>K0707051</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>667</v>
       </c>
@@ -22064,7 +22055,7 @@
         <v>K0707052</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>672</v>
       </c>
@@ -22097,7 +22088,7 @@
         <v>K0707053</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>677</v>
       </c>
@@ -22130,7 +22121,7 @@
         <v>K0707054</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>682</v>
       </c>
@@ -22163,7 +22154,7 @@
         <v>K0707061</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>687</v>
       </c>
@@ -22196,7 +22187,7 @@
         <v>K0707062</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>692</v>
       </c>
@@ -22229,7 +22220,7 @@
         <v>K0707063</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>697</v>
       </c>
@@ -22262,7 +22253,7 @@
         <v>K0707064</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>702</v>
       </c>
@@ -22295,7 +22286,7 @@
         <v>K0707071</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>707</v>
       </c>
@@ -22328,7 +22319,7 @@
         <v>K0707072</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>712</v>
       </c>
@@ -22361,7 +22352,7 @@
         <v>K0707073</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>717</v>
       </c>
@@ -22394,7 +22385,7 @@
         <v>K0707074</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>722</v>
       </c>
@@ -22427,7 +22418,7 @@
         <v>K0707081</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>727</v>
       </c>
@@ -22460,7 +22451,7 @@
         <v>K0707082</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>732</v>
       </c>
@@ -22493,7 +22484,7 @@
         <v>K0707083</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>737</v>
       </c>
@@ -22526,7 +22517,7 @@
         <v>K0707083</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>741</v>
       </c>
@@ -22559,7 +22550,7 @@
         <v>K0707111</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>746</v>
       </c>
@@ -22592,7 +22583,7 @@
         <v>K0707112</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>751</v>
       </c>
@@ -22625,7 +22616,7 @@
         <v>K0707113</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>756</v>
       </c>
@@ -22658,7 +22649,7 @@
         <v>K0707113</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>760</v>
       </c>
@@ -22691,7 +22682,7 @@
         <v>K0707121</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>765</v>
       </c>
@@ -22724,7 +22715,7 @@
         <v>K0707122</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>770</v>
       </c>
@@ -22757,7 +22748,7 @@
         <v>K0707122</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>775</v>
       </c>
@@ -22790,7 +22781,7 @@
         <v>K0707124</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>780</v>
       </c>
@@ -22823,7 +22814,7 @@
         <v>K0707131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>785</v>
       </c>
@@ -22856,7 +22847,7 @@
         <v>K0707132</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>790</v>
       </c>
@@ -22889,7 +22880,7 @@
         <v>K0707133</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>795</v>
       </c>
@@ -22922,7 +22913,7 @@
         <v>K0707141</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>800</v>
       </c>
@@ -22955,7 +22946,7 @@
         <v>K0707142</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>805</v>
       </c>
@@ -22988,7 +22979,7 @@
         <v>K0707143</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>810</v>
       </c>
@@ -23021,7 +23012,7 @@
         <v>K0707144</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>815</v>
       </c>
@@ -23054,7 +23045,7 @@
         <v>K0707151</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>820</v>
       </c>
@@ -23087,7 +23078,7 @@
         <v>K0707152</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>825</v>
       </c>
@@ -23120,7 +23111,7 @@
         <v>K0707162</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>830</v>
       </c>
@@ -23153,7 +23144,7 @@
         <v>K0707163</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>835</v>
       </c>
@@ -23186,7 +23177,7 @@
         <v>K0707163</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>840</v>
       </c>
@@ -23219,7 +23210,7 @@
         <v>K0707172</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>845</v>
       </c>
@@ -23252,7 +23243,7 @@
         <v>K0707174</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>850</v>
       </c>
@@ -23285,7 +23276,7 @@
         <v>K0707181</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>855</v>
       </c>
@@ -23318,7 +23309,7 @@
         <v>K0707182</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>860</v>
       </c>
@@ -23351,7 +23342,7 @@
         <v>K0707183</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>865</v>
       </c>
@@ -23384,7 +23375,7 @@
         <v>K0707184</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>870</v>
       </c>
@@ -23417,7 +23408,7 @@
         <v>K0707211</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>875</v>
       </c>
@@ -23450,7 +23441,7 @@
         <v>K0707211</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>878</v>
       </c>
@@ -23483,7 +23474,7 @@
         <v>K0707214</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>883</v>
       </c>
@@ -23516,7 +23507,7 @@
         <v>K0707221</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>888</v>
       </c>
@@ -23549,7 +23540,7 @@
         <v>K0707222</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>893</v>
       </c>
@@ -23582,7 +23573,7 @@
         <v>K0707223</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>898</v>
       </c>
@@ -23615,7 +23606,7 @@
         <v>K0707224</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>904</v>
       </c>
@@ -23648,7 +23639,7 @@
         <v>K0707231</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>909</v>
       </c>
@@ -23681,7 +23672,7 @@
         <v>K0707232</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>914</v>
       </c>
@@ -23714,7 +23705,7 @@
         <v>K0707233</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>919</v>
       </c>
@@ -23747,7 +23738,7 @@
         <v>K0707234</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>924</v>
       </c>
@@ -23815,7 +23806,7 @@
       </c>
       <c r="L192" s="5"/>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>934</v>
       </c>
@@ -23848,7 +23839,7 @@
         <v>K0707244</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>939</v>
       </c>
@@ -23986,7 +23977,7 @@
       </c>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>959</v>
       </c>
@@ -24019,7 +24010,7 @@
         <v>K0707251</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>964</v>
       </c>
@@ -24052,7 +24043,7 @@
         <v>K0707262</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>969</v>
       </c>
@@ -24085,7 +24076,7 @@
         <v>K0707264</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>974</v>
       </c>
@@ -24118,7 +24109,7 @@
         <v>K0707264</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>978</v>
       </c>
@@ -24151,7 +24142,7 @@
         <v>K0707272</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>983</v>
       </c>
@@ -24184,7 +24175,7 @@
         <v>K0707272</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>987</v>
       </c>
@@ -24217,7 +24208,7 @@
         <v>K0707274</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>992</v>
       </c>
@@ -24250,7 +24241,7 @@
         <v>K0707281</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>997</v>
       </c>
@@ -24283,7 +24274,7 @@
         <v>K0707282</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>1002</v>
       </c>
@@ -24316,7 +24307,7 @@
         <v>K0707283</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>1007</v>
       </c>
@@ -24349,7 +24340,7 @@
         <v>K0707283</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>1012</v>
       </c>
@@ -24382,7 +24373,7 @@
         <v>K0707311</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>1017</v>
       </c>
@@ -24415,7 +24406,7 @@
         <v>K0707312</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>1022</v>
       </c>
@@ -24448,7 +24439,7 @@
         <v>K0707313</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>1027</v>
       </c>
@@ -24481,7 +24472,7 @@
         <v>K0707314</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>1032</v>
       </c>
@@ -24514,7 +24505,7 @@
         <v>K0707321</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>1037</v>
       </c>
@@ -24547,7 +24538,7 @@
         <v>K0707323</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>1042</v>
       </c>
@@ -24580,7 +24571,7 @@
         <v>K0707324</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>1047</v>
       </c>
@@ -24613,7 +24604,7 @@
         <v>K0707332</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>1051</v>
       </c>
@@ -24646,7 +24637,7 @@
         <v>K0707333</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>1057</v>
       </c>
@@ -24679,7 +24670,7 @@
         <v>K0707333</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>1060</v>
       </c>
@@ -24712,7 +24703,7 @@
         <v>K0707341</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>1065</v>
       </c>
@@ -24745,7 +24736,7 @@
         <v>K0707341</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>1069</v>
       </c>
@@ -24778,7 +24769,7 @@
         <v>K0707343</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>1074</v>
       </c>
@@ -24811,7 +24802,7 @@
         <v>K0707344</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>1078</v>
       </c>
@@ -24844,7 +24835,7 @@
         <v>K0707351</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>1083</v>
       </c>
@@ -24877,7 +24868,7 @@
         <v>K0707351</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>1088</v>
       </c>
@@ -24910,7 +24901,7 @@
         <v>K0707354</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>1094</v>
       </c>
@@ -24943,7 +24934,7 @@
         <v>K0707354</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>1099</v>
       </c>
@@ -24976,7 +24967,7 @@
         <v>K0707363</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>1104</v>
       </c>
@@ -25009,7 +25000,7 @@
         <v>K0707364</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>1108</v>
       </c>
@@ -25038,408 +25029,8 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="301" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="302" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="303" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="304" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="305" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="306" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="307" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="308" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="309" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="310" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="311" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="312" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="313" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="314" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="315" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="316" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="317" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="318" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="319" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="320" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="321" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="322" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="323" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="324" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="325" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="326" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="327" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="328" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="329" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="330" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="331" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="332" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="333" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="334" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="335" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="336" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="337" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="338" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="339" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="340" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="341" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="342" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="343" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="344" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="345" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="346" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="347" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="348" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="349" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="350" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="351" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="352" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="353" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="354" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="355" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="356" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="357" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="358" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="359" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="360" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="361" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="362" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="363" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="364" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="365" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="366" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="367" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="368" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="369" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="370" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="371" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="372" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="373" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="374" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="375" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="376" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="377" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="378" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="379" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="380" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="381" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="382" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="383" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="384" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="385" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="386" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="387" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="388" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="389" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="390" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="391" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="392" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="393" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="394" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="395" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="396" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="397" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="398" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="399" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="400" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="401" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="402" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="403" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="404" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="405" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="406" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="407" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="408" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="409" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="410" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="411" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="412" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="413" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="414" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="415" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="416" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="417" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="418" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="419" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="420" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="421" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="422" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="423" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="424" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="425" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="426" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="427" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="428" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="429" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="430" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="431" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="432" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="433" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="434" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="435" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="436" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="437" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="438" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="439" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="440" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="441" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="442" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="443" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="444" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="445" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="446" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="447" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="448" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="449" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="450" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="451" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="452" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="453" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="454" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="455" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="456" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="457" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="458" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="459" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="460" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="461" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="462" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="463" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="464" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="465" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="466" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="467" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="468" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="469" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="470" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="471" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="472" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="473" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="474" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="475" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="476" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="477" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="478" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="479" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="480" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="481" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="482" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="483" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="484" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="485" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="486" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="487" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="488" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="489" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="490" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="491" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="492" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="493" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="494" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="495" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="496" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="497" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="498" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="499" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="500" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="501" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="502" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="503" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="504" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="505" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="506" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="507" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="508" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="509" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="510" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="511" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="512" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="513" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="514" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="515" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="516" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="517" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="518" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="519" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="520" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="521" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="522" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="523" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="524" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="525" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="526" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="527" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="528" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="529" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="530" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="531" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="532" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="533" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="534" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="535" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="536" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="537" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="538" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="539" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="540" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="541" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="542" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="543" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="544" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="545" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="546" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="547" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="548" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="549" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="550" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="551" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="552" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="553" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="554" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="555" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="556" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="557" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="558" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="559" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="560" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="561" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="562" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="563" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="564" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="565" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="566" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="567" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="568" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="569" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="570" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="571" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="572" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="573" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="574" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="575" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="576" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="577" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="578" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="579" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="580" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="581" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="582" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="583" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="584" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="585" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="586" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="587" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="588" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="589" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="590" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="591" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="592" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="593" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="594" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="595" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="596" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="597" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="598" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="599" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="600" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="601" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="602" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="603" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="604" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="605" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="606" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="607" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="608" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="609" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="610" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="611" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="612" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="613" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="614" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="615" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="616" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="617" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="618" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="A1:L618">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter val="*ー*"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L618"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -31390,7 +30981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+    <sheetView topLeftCell="A165" workbookViewId="0">
       <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
@@ -37558,5 +37149,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>